--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value931.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value931.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.441949149113703</v>
+        <v>1.096649527549744</v>
       </c>
       <c r="B1">
-        <v>2.186292987540803</v>
+        <v>1.950227618217468</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.746969676750049</v>
+        <v>1.053438425064087</v>
       </c>
       <c r="E1">
-        <v>0.6007258713741227</v>
+        <v>1.116754531860352</v>
       </c>
     </row>
   </sheetData>
